--- a/Documentação/Biblioteca - Requisitos de Sistema.xlsx
+++ b/Documentação/Biblioteca - Requisitos de Sistema.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Desktop\trabalho lp3-es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pedro\Trabalho do PEDRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE0405A-7334-4C23-8AB0-9749DB9142DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Gerais" sheetId="12" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Planilha1" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Biblioteca!$A$3:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Biblioteca!$A$3:$J$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="243">
   <si>
     <t>Descrição</t>
   </si>
@@ -190,21 +191,6 @@
     <t>RF010</t>
   </si>
   <si>
-    <t>RF011</t>
-  </si>
-  <si>
-    <t>RF012</t>
-  </si>
-  <si>
-    <t>RF013</t>
-  </si>
-  <si>
-    <t>RF014</t>
-  </si>
-  <si>
-    <t>RF015</t>
-  </si>
-  <si>
     <t>RF016</t>
   </si>
   <si>
@@ -217,18 +203,9 @@
     <t>RF019</t>
   </si>
   <si>
-    <t>Não confirmado</t>
-  </si>
-  <si>
-    <t>Manter Livros</t>
-  </si>
-  <si>
     <t>Um usuário deve poder editar Livros</t>
   </si>
   <si>
-    <t>Manter Usuários</t>
-  </si>
-  <si>
     <t xml:space="preserve">Um usuário deve poder editar Usuários </t>
   </si>
   <si>
@@ -241,9 +218,6 @@
     <t>Requisitos Técnicos do Sistema: SISBIBLI - Sistema de Biblioteca</t>
   </si>
   <si>
-    <t>O sistema deve dizer quantos Livros diferentes estão cadastrados</t>
-  </si>
-  <si>
     <t>Registrar  Empréstimos de Livros</t>
   </si>
   <si>
@@ -263,21 +237,6 @@
   </si>
   <si>
     <t>Reservar Livros</t>
-  </si>
-  <si>
-    <t>Empréstimo de livro com prazo de devolução conectado ao usuário -&gt; Número de exemplares disponíveis. Marcar o livro como indisponível</t>
-  </si>
-  <si>
-    <t>Devolução de livro -&gt; Número de exemplares disponíveis E liberar o usuário pedir outro empréstimo. Marcar o livro como disponível</t>
-  </si>
-  <si>
-    <t>Reservar livros que já estão classificados como indisponíveis. Marcar como reservado</t>
-  </si>
-  <si>
-    <t>O sistema deve mostrar os Livros cadastrados</t>
-  </si>
-  <si>
-    <t>O sistema deve mostrar os Usuários cadastrados</t>
   </si>
   <si>
     <r>
@@ -361,15 +320,6 @@
     <t>Mostrar Reservas em um intervalo de datas por usuários ou todos</t>
   </si>
   <si>
-    <t>Mostrar todos os livros</t>
-  </si>
-  <si>
-    <t>Mostrar todos os Usuários</t>
-  </si>
-  <si>
-    <t>Tipo (Funcional ou Não Funcional)</t>
-  </si>
-  <si>
     <t>Versão</t>
   </si>
   <si>
@@ -379,9 +329,6 @@
     <t>Funcionalidade</t>
   </si>
   <si>
-    <t>Manter Editoras</t>
-  </si>
-  <si>
     <t>Um usuário deve poder desabilitar Editoras</t>
   </si>
   <si>
@@ -397,9 +344,6 @@
     <t>Um usuário deve poder editar Autores</t>
   </si>
   <si>
-    <t>Manter Autores</t>
-  </si>
-  <si>
     <t>Desabilitar Autores</t>
   </si>
   <si>
@@ -415,9 +359,6 @@
     <t>Um usuário deve poder desabilitar Palavra chave</t>
   </si>
   <si>
-    <t>Manter Palavra chave</t>
-  </si>
-  <si>
     <t>Cadastrar Livros</t>
   </si>
   <si>
@@ -490,33 +431,15 @@
     <t>Contar Livros diferentes reservados</t>
   </si>
   <si>
-    <t>Consultar Livros</t>
-  </si>
-  <si>
-    <t>Consultar Usuários</t>
-  </si>
-  <si>
-    <t>Mostrar quantidade de Livros</t>
-  </si>
-  <si>
-    <t>Contar Livros</t>
-  </si>
-  <si>
     <t>Cadastrar Exemplar</t>
   </si>
   <si>
     <t>Editar Exemplar</t>
   </si>
   <si>
-    <t>Um usuário deve poder cadastrar Exemplar(CÓDIGO, editora)</t>
-  </si>
-  <si>
     <t>Um usuário deve poder editar Exemplar</t>
   </si>
   <si>
-    <t>Manter Exemplar</t>
-  </si>
-  <si>
     <t>Associar Autor a Livro</t>
   </si>
   <si>
@@ -679,11 +602,215 @@
     <t>Cadastrar Editoras</t>
   </si>
   <si>
-    <t>Um usuário deve poder cadastrar Editoras(ID, nome, endereço, status)</t>
+    <t>Um usuário deve poder cadastrar Livros(CÓDIGO, nome, prefácio, data de publicação)</t>
+  </si>
+  <si>
+    <t>Remover Usuários</t>
+  </si>
+  <si>
+    <t>Remover Editoras</t>
+  </si>
+  <si>
+    <t>Remover Autores</t>
+  </si>
+  <si>
+    <t>Remover Palavra Chave</t>
+  </si>
+  <si>
+    <t>Desabilitar Livros</t>
+  </si>
+  <si>
+    <t>Desabilitar Exemplar</t>
+  </si>
+  <si>
+    <t>Associar Editoras</t>
+  </si>
+  <si>
+    <t>Desassociar Editoras</t>
+  </si>
+  <si>
+    <t>Inserir Usuários</t>
+  </si>
+  <si>
+    <t>Inserir Editoras</t>
+  </si>
+  <si>
+    <t>RemoverEditoras</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder remover Editoras</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder remover Autores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um usuário deve poder remover Usuários </t>
+  </si>
+  <si>
+    <t>Inserir Autores</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder remover Palavra chave</t>
+  </si>
+  <si>
+    <t>Inserir Palavra chave</t>
+  </si>
+  <si>
+    <t>Funcional ou Não Funcional</t>
+  </si>
+  <si>
+    <t>Inserir Livros</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder Desabilitar Exemplar</t>
+  </si>
+  <si>
+    <t>Inserir Exemplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associar Editora </t>
+  </si>
+  <si>
+    <t>Desassociar Editora</t>
+  </si>
+  <si>
+    <t>Habilitar</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder habilitar Exemplar</t>
+  </si>
+  <si>
+    <t>Habilitar Exemplar</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder associar um Editora a um Exemplar</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder desassociar um Editora a um Exemplar</t>
+  </si>
+  <si>
+    <t>Cancelar Reserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelar Empréstimo </t>
+  </si>
+  <si>
+    <t>Cancelar Empréstimos de Livros</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>Confirmado</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder reservar exemplares que estão indisponíveis. Marcar como reservado e associar Usuário, Livro e Exemplar</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cancelar uma reserva enquanto não tenha se tornado um empréstimo</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder fazer empréstimo de exemplares  com prazo de devolução. Marcar o Exemplar como indisponível e associar Usuário, Livro e Exemplar</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cancelar um empréstimo enquanto não tenha sido efetivado.</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder devolver livros que foram emprestados. Registrar empréstimo como devolvido e o exemplar como liberado para futuros empréstimos. exemplar como disponível</t>
+  </si>
+  <si>
+    <t>Habilitar Palavra chave</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder habilitar Palavra chave</t>
+  </si>
+  <si>
+    <t>Habilitar Autores</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder Hsabilitar Autores</t>
+  </si>
+  <si>
+    <t>Habilitar Editoras</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder habilitar Editoras</t>
+  </si>
+  <si>
+    <t>Habilitar Usuários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um usuário deve poder Habilitar Usuários </t>
+  </si>
+  <si>
+    <t>RF0011</t>
+  </si>
+  <si>
+    <t>RF0012</t>
+  </si>
+  <si>
+    <t>RF0013</t>
+  </si>
+  <si>
+    <t>RF0014</t>
+  </si>
+  <si>
+    <t>RF0015</t>
+  </si>
+  <si>
+    <t>RF030</t>
+  </si>
+  <si>
+    <t>RF031</t>
+  </si>
+  <si>
+    <t>RF032</t>
+  </si>
+  <si>
+    <t>RF033</t>
+  </si>
+  <si>
+    <t>RF034</t>
+  </si>
+  <si>
+    <t>RF035</t>
+  </si>
+  <si>
+    <t>RF036</t>
+  </si>
+  <si>
+    <t>RF037</t>
+  </si>
+  <si>
+    <t>RF038</t>
+  </si>
+  <si>
+    <t>RF039</t>
+  </si>
+  <si>
+    <t>RF040</t>
+  </si>
+  <si>
+    <t>RF041</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cadastrar Editoras(CÓDIGO, nome, endereço, telefone, contato, status)</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cadastrar Autores(CÓDIGO, nome, endereço, telefone, contato, status)</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cadastrar Palavra chave(CÓDIGO, nome, status)</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder cadastrar Exemplar(LIVRO, CÓDIGO, reservado, editora)</t>
   </si>
   <si>
     <r>
-      <t>Um usuário deve poder cadastrar Usuários Usuários(ID, nome, senha, endereço, telefone, status, Especificação</t>
+      <t>Um usuário deve poder cadastrar Usuários Usuários(CÓDIGO[matrícula?], usuario, senha, nome, endereço, tipo de usuário, status</t>
     </r>
     <r>
       <rPr>
@@ -693,33 +820,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[aluno(ano), funcionário(nível), professor(cargo)]</t>
+      <t>[aluno, funcionário, professor]</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Um usuário deve poder cadastrar Autores(ID, nome, status, telefone)</t>
-  </si>
-  <si>
-    <t>Um usuário deve poder cadastrar Palavra chave(ID, nome, status)</t>
-  </si>
-  <si>
-    <t>Um usuário deve poder cadastrar Livros(ID, nome, prefácio, data de publicação)</t>
+  </si>
+  <si>
+    <t>Habilitar Livros</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder desabilitar Livros</t>
+  </si>
+  <si>
+    <t>Um usuário deve poder habilitar Livros</t>
+  </si>
+  <si>
+    <t>RF042</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,12 +885,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF575757"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -862,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -900,25 +1015,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -933,7 +1048,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -966,29 +1081,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,32 +1424,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="108.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="108.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.81640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1718,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C25">
     <sortCondition ref="A4:A25"/>
     <sortCondition ref="B4:B25"/>
     <sortCondition ref="C4:C25"/>
@@ -1608,33 +1729,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="1"/>
+    <col min="12" max="12" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1643,7 +1764,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1652,21 +1773,21 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>40</v>
@@ -1675,18 +1796,18 @@
         <v>0</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="58.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="56" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>45</v>
@@ -1698,26 +1819,26 @@
         <v>42</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>62</v>
+        <v>178</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>45</v>
@@ -1729,25 +1850,25 @@
         <v>43</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>45</v>
@@ -1759,85 +1880,85 @@
         <v>44</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
+      <c r="E7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
+      <c r="G8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>45</v>
@@ -1849,115 +1970,115 @@
         <v>48</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="E11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>45</v>
@@ -1969,85 +2090,85 @@
         <v>52</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>45</v>
@@ -2056,28 +2177,28 @@
         <v>41</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>199</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>45</v>
@@ -2086,290 +2207,274 @@
         <v>41</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="E22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="I25" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="33" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>159</v>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>45</v>
@@ -2378,386 +2483,798 @@
         <v>41</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>241</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A30" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A31" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A40" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="25" t="s">
+      <c r="J40" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="33" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="40" t="s">
+      <c r="B41" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="56" x14ac:dyDescent="0.35">
+      <c r="A42" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="26"/>
+      <c r="I43" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="G44" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="42" x14ac:dyDescent="0.35">
+      <c r="A45" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A16:G32">
-    <sortCondition ref="A16:A32"/>
-    <sortCondition ref="B16:B32"/>
-    <sortCondition ref="G16:G32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:G45">
+    <sortCondition ref="A24:A45"/>
+    <sortCondition ref="B24:B45"/>
+    <sortCondition ref="G24:G45"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308252D4-7E3F-4B28-AF13-1FF75B9A86BE}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="42" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
         <v>164</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
